--- a/MerleNorman/target/test-classes/GeneralUtilities/ExecutionResult.xlsx
+++ b/MerleNorman/target/test-classes/GeneralUtilities/ExecutionResult.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="65">
   <si>
     <t>openBrowser</t>
   </si>
@@ -31,9 +31,6 @@
     <t>sleep</t>
   </si>
   <si>
-    <t>maxwindow</t>
-  </si>
-  <si>
     <t>accptCookie</t>
   </si>
   <si>
@@ -64,17 +61,160 @@
     <t>Result</t>
   </si>
   <si>
-    <t/>
+    <t>proceedtoCheckout</t>
+  </si>
+  <si>
+    <t>sendKey</t>
+  </si>
+  <si>
+    <t>fName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>lName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>streetNumber</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>selectByValue</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>tabOut</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>nextToBilling</t>
+  </si>
+  <si>
+    <t>Fail message</t>
+  </si>
+  <si>
+    <t>Reason for fail</t>
+  </si>
+  <si>
+    <t>emailxpath</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>creditCardNumber</t>
+  </si>
+  <si>
+    <t>cardNumberVisa</t>
+  </si>
+  <si>
+    <t>expiryMonth</t>
+  </si>
+  <si>
+    <t>expMonth</t>
+  </si>
+  <si>
+    <t>expiryYear</t>
+  </si>
+  <si>
+    <t>expYear</t>
+  </si>
+  <si>
+    <t>cvv</t>
+  </si>
+  <si>
+    <t>cvvxpath</t>
+  </si>
+  <si>
+    <t>nextOrderReview</t>
+  </si>
+  <si>
+    <t>skipStudio</t>
+  </si>
+  <si>
+    <t>placeOrder</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>getText</t>
+  </si>
+  <si>
+    <t>ordrerID</t>
+  </si>
+  <si>
+    <t>resizeWindow</t>
+  </si>
+  <si>
+    <t>iPhone6</t>
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: not able to resize window </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: not able accept the cookie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: not able get the text from element </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: not able to enter the value in field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: not able to click </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: not able select the dropdown value by index </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: not able to taab out </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -528,6 +668,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -573,9 +722,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -921,29 +1071,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.453125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="255.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -954,10 +1118,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -968,10 +1132,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -982,91 +1146,527 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
